--- a/biology/Botanique/Mayna/Mayna.xlsx
+++ b/biology/Botanique/Mayna/Mayna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayna  est un genre de plantes à fleurs de la famille des Achariaceae (anciennement Flacourtiaceae). Il comporte 6 espèces d'arbres ou d'arbustes américaines valides, dont son espèce type Mayna odorata Aubl..
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Mayna correspond à des arbustes ou de petits arbres à feuilles simples alternes, pour la plupart non ponctuées, à marge entières ou dentées. Les pétioles s'épaississent souvent distalement. Les fleurs sont unisexuées, dioïques, axillaires, solitaires ou réunies en un seul faisceau. Les segments du périanthe sont disposés asymétriquement. On compte (2-)3 sépales et 6-8(-10) pétales plus gros que les sépales. Le disque est absent. Le fleurs mâles comportent 20-50 étamines à filets libres, poilus, et des anthères linéaires, basifixées, déhiscentes longitudinalement et sont dépourvues de rudiment d'ovaire. Les fleurs femelles dépourvues d'étamines et de staminodes, comportent un ovaire échinulé, à 3 placentas multi-ovulés, (2-)3-4 styles courts, à 2 lobes multi-laciniés. Les fruits sont des baies, ou des fruits secs, globuleux, recouverts de poils et contenant d'assez nombreuses graines[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mayna correspond à des arbustes ou de petits arbres à feuilles simples alternes, pour la plupart non ponctuées, à marge entières ou dentées. Les pétioles s'épaississent souvent distalement. Les fleurs sont unisexuées, dioïques, axillaires, solitaires ou réunies en un seul faisceau. Les segments du périanthe sont disposés asymétriquement. On compte (2-)3 sépales et 6-8(-10) pétales plus gros que les sépales. Le disque est absent. Le fleurs mâles comportent 20-50 étamines à filets libres, poilus, et des anthères linéaires, basifixées, déhiscentes longitudinalement et sont dépourvues de rudiment d'ovaire. Les fleurs femelles dépourvues d'étamines et de staminodes, comportent un ovaire échinulé, à 3 placentas multi-ovulés, (2-)3-4 styles courts, à 2 lobes multi-laciniés. Les fruits sont des baies, ou des fruits secs, globuleux, recouverts de poils et contenant d'assez nombreuses graines.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Mayna est présent du Honduras au Panama et de la Colombie au Brésil en passant par le Venezuela, les Guyanes, l'Est du Pérou et l'Est de la Bolivie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Mayna est présent du Honduras au Panama et de la Colombie au Brésil en passant par le Venezuela, les Guyanes, l'Est du Pérou et l'Est de la Bolivie.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[1] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « MAYNA. (Tabula 352.) 
 FLOS MASCULUS. 
 CAL. Perianthium monophyllum, tripartitum, laciniis ſubrotundis, concavis, intùs albis. 
@@ -609,17 +627,91 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List[4] :
-Espèces valides
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mayna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces valides</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mayna grandifolia (H. Karst.) Warb.
 Mayna hystricina (Gleason) Sleumer
 Mayna odorata Aubl.
 Mayna parvifolia (J.F. Macbr.) Sleumer
 Mayna pubescens (Triana &amp; H. Karst.) Warb.
 Mayna suaveolens (Triana &amp; H. Karst.) Warb.
-Nomenclatures taxonomiques non résolues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mayna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mayna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nomenclatures taxonomiques non résolues</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mayna apeibifolia Warb.
 Mayna echinata Spruce ex Benth.
 Mayna micranthera Pilg.
